--- a/biology/Microbiologie/Trinema/Trinema.xlsx
+++ b/biology/Microbiologie/Trinema/Trinema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trinema est un genre de l'ordre des Euglyphida, faisant partie des Rhizaria. Ce genre comprend probablement plus d'une vingtaine d'espèces et un nombre similaire de sous-espèces, variétés et formes. La plupart des descriptions actuelles sont insuffisantes et doivent être considérées comme nomina cruda[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinema est un genre de l'ordre des Euglyphida, faisant partie des Rhizaria. Ce genre comprend probablement plus d'une vingtaine d'espèces et un nombre similaire de sous-espèces, variétés et formes. La plupart des descriptions actuelles sont insuffisantes et doivent être considérées comme nomina cruda. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amibes à thèque caractérisées par un test elliptique à ovoïde, recouvert de plaques rondes de grande et de petite taille, se chevauchant partiellement. L'ouverture du pseudostome est invaginée et en position ventrale sub-terminale. Elle est bordée de plaques dentées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amibes à thèque caractérisées par un test elliptique à ovoïde, recouvert de plaques rondes de grande et de petite taille, se chevauchant partiellement. L'ouverture du pseudostome est invaginée et en position ventrale sub-terminale. Elle est bordée de plaques dentées.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trinema sont des espèces herbivores, communes en eau douce, dans les sols et dans les tourbières.
 </t>
@@ -573,9 +589,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les espèces actuellement décrites sont[2]: 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les espèces actuellement décrites sont: 
 Trinema chardezi Decloitre, 1981
 Trinema ciliata Štĕpánek, 1963
 Trinema complanatum, Penard, 1890
